--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.113</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.999</v>
+        <v>17.353</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.363</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.378</v>
+        <v>13.531</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.247</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.807</v>
+        <v>9.454000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.16188318523993</v>
+        <v>3.066667610604597</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.1232248411819</v>
+        <v>6.367473015692084</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.16426705279956</v>
+        <v>12.64860163297628</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.67325878663948</v>
+        <v>-7.753083626615947</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.08035142487735</v>
+        <v>6.165917648956096</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.3238253667726</v>
+        <v>8.865815486896494</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.84372963854341</v>
+        <v>-4.901447273015307</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.39340077377941</v>
+        <v>18.79875586485305</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.40020734425424</v>
+        <v>23.86315049965016</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.02045420558698</v>
+        <v>13.44233962320693</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.05055197307906</v>
+        <v>19.45545873413961</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.4886381789478</v>
+        <v>19.14020769488441</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.24107555958962</v>
+        <v>2.738489765801276</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.42783703349378</v>
+        <v>5.143673138291675</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.30402340637415</v>
+        <v>14.19357731779139</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.56695633292977</v>
+        <v>11.49938204973448</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.66028736110045</v>
+        <v>18.76443875246456</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.75425863759869</v>
+        <v>24.78529484359267</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.98277280790278</v>
+        <v>-0.4497637619954133</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.53277376290075</v>
+        <v>8.270180295033967</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.82994891310482</v>
+        <v>14.00624696918494</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.23220905421785</v>
+        <v>-2.169164570186567</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.91376707745471</v>
+        <v>22.13650459101068</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.16190901792186</v>
+        <v>1.158539954871898</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.12326613994815</v>
+        <v>13.23901945813198</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.16431346428379</v>
+        <v>17.13572945685091</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.67329084278895</v>
+        <v>-8.173177661649262</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.08039970266349</v>
+        <v>19.09204953854915</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.32387906975332</v>
+        <v>20.6786412516915</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.84376514615595</v>
+        <v>-2.440356200552586</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.39345127853454</v>
+        <v>34.20741009931704</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.40026290623546</v>
+        <v>37.09852710370676</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.02050685871101</v>
+        <v>37.72714842748901</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32.05060979231407</v>
+        <v>41.11188471003051</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33.48869860782483</v>
+        <v>39.5741891218798</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.24111847504671</v>
+        <v>8.974776682642428</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.42789457952725</v>
+        <v>29.97681964174485</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.30408574787289</v>
+        <v>34.50631386833312</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.56698702783167</v>
+        <v>11.88037848799159</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.66033367721123</v>
+        <v>29.32120908134372</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.75431014372029</v>
+        <v>33.58884945001886</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.98280960903593</v>
+        <v>2.673677691163064</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.53282695580484</v>
+        <v>26.37176251262657</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.83000760734295</v>
+        <v>31.71839648004261</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.23224941035967</v>
+        <v>4.935190852431461</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.91382258786491</v>
+        <v>43.86809893201355</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.1624130817696</v>
+        <v>-4.166013227411369</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.12376172750383</v>
+        <v>9.136817591837101</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.16480423863834</v>
+        <v>14.90475662528065</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10.67380748907907</v>
+        <v>-11.14252483721096</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.08090751349878</v>
+        <v>17.47242939887174</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.32438172923764</v>
+        <v>21.22558470342766</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14.84427913966342</v>
+        <v>-4.784264791914367</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.39395713443123</v>
+        <v>33.73304661792956</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.40076398026239</v>
+        <v>38.78443939578541</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.02101399692415</v>
+        <v>36.99879186160301</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32.05111317527312</v>
+        <v>39.44144998728014</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.48919974509159</v>
+        <v>40.24337392731711</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.24162925690431</v>
+        <v>1.778996570982017</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.42839752653154</v>
+        <v>27.04967334807777</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.30458402936242</v>
+        <v>33.49867532280261</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.56749211803475</v>
+        <v>5.284610408830687</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.66083016629874</v>
+        <v>24.15325156778606</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.75480178465472</v>
+        <v>30.57953848640038</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>13.98332755444565</v>
+        <v>-1.680340069029242</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.53333592867914</v>
+        <v>23.60443777023393</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.83051139622654</v>
+        <v>31.47172590368716</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>18.23276463456758</v>
+        <v>1.44997673946564</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.9143295472607</v>
+        <v>42.49225381813976</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12.16256293404065</v>
+        <v>-6.939757624900651</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.12392332897539</v>
+        <v>5.46416751688362</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.16496738773412</v>
+        <v>14.70369363740856</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.67395155038526</v>
+        <v>-9.706548880713385</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.08106365164533</v>
+        <v>15.4605623357739</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.3245395372574</v>
+        <v>22.73396546034725</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.8444302503208</v>
+        <v>-6.683864136548365</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.39411943083111</v>
+        <v>28.70358862269312</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.40092779463121</v>
+        <v>37.55787155118857</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.02118190443403</v>
+        <v>25.12888278991925</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.05128568561575</v>
+        <v>29.19117256310729</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.489372830847</v>
+        <v>34.9193484912531</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.24178958218774</v>
+        <v>-1.314355520551217</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.42856845117205</v>
+        <v>20.70529212718652</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.30475643187863</v>
+        <v>32.95720091196306</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>15.5676470700648</v>
+        <v>1.712863364537171</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.66099703776647</v>
+        <v>19.0667605069025</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.75497025958207</v>
+        <v>28.71849584785521</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.98347668643783</v>
+        <v>-1.579899719031644</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.53349731814943</v>
+        <v>19.40411819535008</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.83067451577409</v>
+        <v>30.56462463530328</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.23292090675765</v>
+        <v>-2.485289616652963</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.91449717185673</v>
+        <v>34.59088631355296</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.97034606107997</v>
+        <v>31.56444271401371</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.69433470735032</v>
+        <v>19.32330670166995</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.79875199392154</v>
+        <v>30.67552004452229</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.2603492817184</v>
+        <v>32.19238048372911</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.86742688378269</v>
+        <v>5.758861434351033</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.19706122605709</v>
+        <v>20.89927492066325</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.11412672730239</v>
+        <v>27.56867753128255</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.95617594449958</v>
+        <v>13.77610273145983</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.07610436425828</v>
+        <v>24.31180448509015</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.14826496624346</v>
+        <v>33.68590809211501</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.70724581327545</v>
+        <v>-1.930108606943904</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.28785411998611</v>
+        <v>12.61113505837032</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.56296871152754</v>
+        <v>18.76977842113872</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.93923398085484</v>
+        <v>-1.385455933870631</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.64977738333509</v>
+        <v>30.77579251514753</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.68460027307208</v>
+        <v>43.44371496477139</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40.60040152187628</v>
+        <v>34.07800779659907</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.70044458151561</v>
+        <v>46.71345402962832</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.1608740468191</v>
+        <v>50.76771272201385</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>33.72484703688889</v>
+        <v>5.885570416382237</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.07807553487889</v>
+        <v>29.57915363336515</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.97623682831409</v>
+        <v>40.64428474686723</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.97040670037523</v>
+        <v>51.84709358158553</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.6943924304351</v>
+        <v>48.33496522493554</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35.79881496968825</v>
+        <v>56.36424394704407</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>37.26041490107983</v>
+        <v>56.8487547645086</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.8674748687795</v>
+        <v>17.4383582295831</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.19712401323581</v>
+        <v>53.3577921805752</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>38.11419436860307</v>
+        <v>55.99313960771308</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>23.95622591395097</v>
+        <v>19.29593690838327</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.07617002275672</v>
+        <v>41.14391523058326</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>38.1483357454285</v>
+        <v>47.18318937448508</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.70730224908463</v>
+        <v>8.16139146508344</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.28792701943649</v>
+        <v>39.28677203121875</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>37.56304704039374</v>
+        <v>43.38533947240755</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.93929402649337</v>
+        <v>12.30011821022568</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>37.64985265077165</v>
+        <v>60.38704994128194</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.68468060189979</v>
+        <v>69.75098371848519</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>40.6004791686346</v>
+        <v>73.53762110740537</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.70052747393136</v>
+        <v>81.88454388275112</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>46.16095956156389</v>
+        <v>84.12616341318507</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.72491477453337</v>
+        <v>26.54678855617423</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>44.07815813115865</v>
+        <v>72.4853397971964</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>46.97632422262302</v>
+        <v>77.64225141593529</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.97090884748248</v>
+        <v>52.93914978303742</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.69490056196137</v>
+        <v>45.44419888931829</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>35.79931925258779</v>
+        <v>52.50642387997333</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>37.26091692176266</v>
+        <v>55.63228681082531</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.86798668098037</v>
+        <v>9.257392333898608</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>35.19762784936469</v>
+        <v>49.92861764139424</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.11469351712257</v>
+        <v>54.65989373406471</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.9567203347243</v>
+        <v>12.88571876184342</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.07665581731832</v>
+        <v>36.62307765771318</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.14881667641862</v>
+        <v>44.4337220198952</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.70780916923124</v>
+        <v>4.444508928302994</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.28842493750958</v>
+        <v>37.7765857273546</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>37.56353975705913</v>
+        <v>43.968354909675</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.93979824518179</v>
+        <v>9.430738095437917</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>37.65034857548915</v>
+        <v>60.12791660240025</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>40.68517170075287</v>
+        <v>71.49466587690604</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.60097601068664</v>
+        <v>72.88443396445551</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>44.70102048771346</v>
+        <v>80.19784202805057</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>46.1614502809883</v>
+        <v>84.85647050692602</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.72541539973606</v>
+        <v>19.69330272726584</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>44.07865075493717</v>
+        <v>70.99672125368882</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>46.9768121437745</v>
+        <v>77.93206667703957</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.97107804472488</v>
+        <v>48.56760059425794</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.69507410746197</v>
+        <v>29.79765883782009</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.79949748911702</v>
+        <v>39.07935255798493</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>37.26109575891219</v>
+        <v>47.23187687251486</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>24.86815252133316</v>
+        <v>3.830651081032769</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.19780446775779</v>
+        <v>40.39942566065791</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.11487165931603</v>
+        <v>50.48827084577754</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.9568757035495</v>
+        <v>12.08487881666174</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.07682309984347</v>
+        <v>34.2112349411657</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.14898557032847</v>
+        <v>46.3753609716277</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.70795917474155</v>
+        <v>6.408803807150733</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.28858720068297</v>
+        <v>35.1577842173787</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37.56370375956577</v>
+        <v>45.76789617975946</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.93995529520495</v>
+        <v>7.863627976709935</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.65051697820441</v>
+        <v>54.45739859010182</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.68534168277798</v>
+        <v>70.60281638027685</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.60115057163924</v>
+        <v>59.18976804473159</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.70119974019489</v>
+        <v>69.70912432821227</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>46.16163014309188</v>
+        <v>80.05202017481766</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.72558233052068</v>
+        <v>15.30786394007687</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.07882846043289</v>
+        <v>62.24069242768492</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.97699137605965</v>
+        <v>76.13392826220915</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.783155804726222</v>
+        <v>4.363333987154519</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.55575810151385</v>
+        <v>2.918925576410444</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.55119832897663</v>
+        <v>9.066975598018459</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6.191546366788447</v>
+        <v>-10.94412054166132</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.40092239723748</v>
+        <v>-2.225908121128285</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.59545466103428</v>
+        <v>1.123667421212829</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.30191557309928</v>
+        <v>-6.687550281578879</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20.66860736546746</v>
+        <v>10.57256208768503</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.63014271640749</v>
+        <v>16.41161461379595</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.25902715775045</v>
+        <v>4.245436556203614</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.22059361549501</v>
+        <v>11.20511588876876</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.63872439698051</v>
+        <v>13.48721687780771</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.6276219668756</v>
+        <v>1.614804280733139</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.6339026954699</v>
+        <v>-2.139562313218917</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.46701019561055</v>
+        <v>8.637116403401521</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.15889657703695</v>
+        <v>12.83782759813393</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.06250586574662</v>
+        <v>15.85752007890106</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.11002043321869</v>
+        <v>23.36289434989574</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9.473259176710572</v>
+        <v>-4.070493114907308</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.82450213052153</v>
+        <v>-0.009000240746516397</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.07185970134311</v>
+        <v>7.826227955329742</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.6608687806662</v>
+        <v>-4.610613432191812</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.15850070239916</v>
+        <v>13.74838667914601</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7.783175160145468</v>
+        <v>3.376109908795101</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>18.55579266663317</v>
+        <v>10.624764808742</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.55123794015093</v>
+        <v>14.78337155228836</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>6.191571672577712</v>
+        <v>-10.33601815311623</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.40096365443294</v>
+        <v>11.53452687318251</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.59550127241779</v>
+        <v>14.19449237124265</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.30194428748863</v>
+        <v>-3.084524138196983</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.66865082715903</v>
+        <v>26.96761192061096</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>23.63019116892796</v>
+        <v>31.03412107590809</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.25907270660294</v>
+        <v>29.48659202157002</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.2206442527717</v>
+        <v>34.13242757154846</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.63877761305898</v>
+        <v>35.30946879718131</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.62765797773096</v>
+        <v>9.478695234084611</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.63395309038994</v>
+        <v>24.04604501393554</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.46706532618744</v>
+        <v>30.74106454753432</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11.15892074524411</v>
+        <v>14.48879645399366</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.06254539760446</v>
+        <v>27.58049329970443</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.11006508724806</v>
+        <v>33.7390052401466</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9.473289179753795</v>
+        <v>0.4416091227572707</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.82454825384637</v>
+        <v>19.25588764227685</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.07191125381535</v>
+        <v>27.14232697334991</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.66090229407206</v>
+        <v>4.002575955767597</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.15854911908037</v>
+        <v>36.80904899379864</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7.783677192831961</v>
+        <v>-2.965261036335377</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.55628636442558</v>
+        <v>5.530596549496053</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.55172690392259</v>
+        <v>11.6099400962773</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.192086234441344</v>
+        <v>-14.25009772442876</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>17.40146952939597</v>
+        <v>8.971428342479598</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20.59600208080799</v>
+        <v>13.86844950014741</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.3024562424249</v>
+        <v>-6.40531812380685</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>20.66915478105457</v>
+        <v>25.54193656076033</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>23.63069041949514</v>
+        <v>31.81510609511845</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>23.25957796708849</v>
+        <v>27.77876826528411</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.2211458217978</v>
+        <v>31.5234630390557</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.63927696832241</v>
+        <v>35.0624659087534</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.62816677461832</v>
+        <v>1.520747093198295</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.63445418758782</v>
+        <v>20.32009621012573</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.46756183295894</v>
+        <v>29.00875181602778</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.15942374565378</v>
+        <v>6.917668171402894</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.06303993909734</v>
+        <v>21.4564852491166</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.11055486043541</v>
+        <v>29.82430235396093</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>9.473804978679635</v>
+        <v>-4.807953830444248</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.82505522965848</v>
+        <v>15.5847136133432</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.07241313103787</v>
+        <v>26.06655946468835</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.6614154186931</v>
+        <v>-0.4126197050097602</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.1590541162719</v>
+        <v>34.52280839278741</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.783820300605704</v>
+        <v>-7.080304541459284</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.55644100744321</v>
+        <v>0.5171002957560091</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.55188306248242</v>
+        <v>9.800867167047656</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>6.192223525635221</v>
+        <v>-14.06390209913802</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.4016186753199</v>
+        <v>5.753464699929239</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20.59615286155793</v>
+        <v>13.90382158221611</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.30260047876111</v>
+        <v>-9.678086594907498</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.66930999704413</v>
+        <v>19.18488966277063</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.63084712179353</v>
+        <v>28.9948431481394</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>23.25973875761347</v>
+        <v>14.55484043826304</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.22131112639831</v>
+        <v>19.65937785203757</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.63944283522867</v>
+        <v>28.1333645181878</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.62832015195964</v>
+        <v>-3.300389490769632</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.63461796158345</v>
+        <v>12.28506690944654</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.46772705164694</v>
+        <v>26.5257324079197</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>11.1595718936699</v>
+        <v>2.424528828055585</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.06319979125803</v>
+        <v>15.45696081133188</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.11071628293496</v>
+        <v>26.79577233829558</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.473947281853523</v>
+        <v>-5.539026924185251</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.82520956681143</v>
+        <v>10.61069026847768</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.07256916210533</v>
+        <v>24.13726795934996</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.66156475527809</v>
+        <v>-5.304871365191886</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.15921459792106</v>
+        <v>25.72428890784001</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.16900724296505</v>
+        <v>25.52996082986802</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.89988795815363</v>
+        <v>9.925188701527233</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.93504730227603</v>
+        <v>22.38601675164365</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>32.37660156634814</v>
+        <v>27.59886261551581</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.22151700919284</v>
+        <v>3.025671824715587</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.36957367761249</v>
+        <v>12.50280047931882</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.24299016377933</v>
+        <v>22.31706447515201</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.56666239383561</v>
+        <v>17.58988836355768</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.4970759674874</v>
+        <v>23.46830149514686</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.52267882172066</v>
+        <v>33.77699780241464</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.2159894163801</v>
+        <v>-2.577701844823835</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.59806359438216</v>
+        <v>6.815049553087661</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.82315704913717</v>
+        <v>14.6835964295036</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.38618740620334</v>
+        <v>-0.7006679818249353</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.91299042723197</v>
+        <v>25.04915068841741</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.90159318772833</v>
+        <v>39.49572910136932</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.82231564375616</v>
+        <v>27.20656238280451</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>39.85345994075995</v>
+        <v>40.5650795797314</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>41.29338080372084</v>
+        <v>47.6407093542504</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.09481399372015</v>
+        <v>6.873306807239274</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>39.26683480723415</v>
+        <v>23.68416141820292</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.12115778020233</v>
+        <v>37.68351074358345</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.1690607210446</v>
+        <v>47.554439323859</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.89993852384059</v>
+        <v>40.26327942950253</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>30.93510304225481</v>
+        <v>49.74708544722363</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.37665991880299</v>
+        <v>54.04183911725774</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.2215580362007</v>
+        <v>16.68327918716618</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.36962925890961</v>
+        <v>46.63479052260571</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>33.24305053860201</v>
+        <v>52.86446853573942</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.56670579532776</v>
+        <v>25.01125737027691</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.49713480085386</v>
+        <v>42.06171332866633</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.522742708088</v>
+        <v>49.47469944386314</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.21603901662759</v>
+        <v>9.470528861346324</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.5981293872914</v>
+        <v>35.1660319423225</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32.82322819932028</v>
+        <v>41.4548464333818</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.38624056977618</v>
+        <v>15.08880059312982</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>32.91305856207701</v>
+        <v>56.54592996184773</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>35.90166631653798</v>
+        <v>68.13896853524876</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.82238609312424</v>
+        <v>68.51041302550514</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>39.85353555790037</v>
+        <v>77.91599829885304</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>41.29345901168683</v>
+        <v>83.32602805204253</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.09487473368226</v>
+        <v>30.05235116036162</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>39.26691015841436</v>
+        <v>68.73995112124682</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>42.12123786877211</v>
+        <v>77.33341172632713</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.1695609850463</v>
+        <v>47.78397070140052</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.9004447193761</v>
+        <v>36.45901694054568</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.93560545400747</v>
+        <v>45.02198936769521</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>32.37716010016075</v>
+        <v>51.97650220459515</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.2220678052843</v>
+        <v>7.784056693006406</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.37013118814415</v>
+        <v>42.43989553435831</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.24354785559321</v>
+        <v>50.842800517794</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.56719808687511</v>
+        <v>17.78381514566918</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.49761860767392</v>
+        <v>36.7366430170453</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.52322173243697</v>
+        <v>45.98020278533143</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.21654374897075</v>
+        <v>5.001096735833059</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.59862526620648</v>
+        <v>32.88449251843342</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>32.82371896366995</v>
+        <v>41.34979088534787</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.38674264819511</v>
+        <v>11.43328243855721</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>32.91355248322428</v>
+        <v>55.51351590610166</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.90215549219489</v>
+        <v>69.16727597313648</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.82288095995353</v>
+        <v>67.05710917984099</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>39.85402666048988</v>
+        <v>75.47063926633665</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>41.2939478532801</v>
+        <v>83.32260099085686</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.09537327674908</v>
+        <v>22.60238374025253</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>39.26740083557335</v>
+        <v>66.59349446792864</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.12172391993294</v>
+        <v>77.05051859558729</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.16972300666414</v>
+        <v>42.26224712424006</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.9006110815842</v>
+        <v>19.89481862722293</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.93577641749857</v>
+        <v>30.39571408310736</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.37733165109297</v>
+        <v>42.40427461292983</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.22222663323677</v>
+        <v>1.025394955545309</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.37030059008629</v>
+        <v>31.62962893768066</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>33.24371874738419</v>
+        <v>45.16246049473089</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.56734672924129</v>
+        <v>15.31575028861995</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.49777894834553</v>
+        <v>32.6802514942403</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.52338365134476</v>
+        <v>46.00027831860548</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.21668699771994</v>
+        <v>5.403607429259822</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.59878054889754</v>
+        <v>28.79093917980917</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.82387594938886</v>
+        <v>41.39583648850409</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.38689283659718</v>
+        <v>8.15642847949367</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>32.91371381673019</v>
+        <v>48.20787862212622</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.90231837227347</v>
+        <v>66.36320086973988</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>35.82304840739722</v>
+        <v>51.69486368898579</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.85419870993962</v>
+        <v>63.03076017882042</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>41.2941204987713</v>
+        <v>76.56128830951197</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.0955332634434</v>
+        <v>16.1519861803565</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.26757139320409</v>
+        <v>55.85053530373655</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.12189597032015</v>
+        <v>72.98955656547865</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.593192985339725</v>
+        <v>9.148863810816849</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.39257584587662</v>
+        <v>14.04704661801061</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.39215876316993</v>
+        <v>20.4931709173507</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.023137139204058</v>
+        <v>-6.593917468421537</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.26145820373711</v>
+        <v>6.144490800745913</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.46021070289614</v>
+        <v>9.930721863191977</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.14265873399169</v>
+        <v>-2.428110854515396</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.53617338688755</v>
+        <v>20.53264336073913</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.50164908457917</v>
+        <v>26.90212808533467</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.13593859037747</v>
+        <v>15.95581117195</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.10933814119317</v>
+        <v>24.23639686125513</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.52885412166444</v>
+        <v>26.55060270206694</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.47648585775948</v>
+        <v>1.94094243494807</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.5141408116993</v>
+        <v>9.76986454762779</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.35051913247798</v>
+        <v>19.2896615541725</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.91740197504667</v>
+        <v>12.22824714957333</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.84740171970158</v>
+        <v>20.98811078581316</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.89953582348515</v>
+        <v>28.67429079285897</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.25343547368106</v>
+        <v>-3.868150303864624</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.63319356097628</v>
+        <v>3.82847462295156</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.88529679228454</v>
+        <v>11.9999905134995</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>14.45026068868962</v>
+        <v>-4.350553038030895</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.97430947523878</v>
+        <v>19.16260482139957</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.593213870762481</v>
+        <v>8.561510524366284</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.39261196625078</v>
+        <v>22.27199606818614</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.39219994526333</v>
+        <v>26.55838906022429</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>7.023164047851113</v>
+        <v>-5.437616811088091</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.26150109154807</v>
+        <v>20.5194708095725</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.46025896090988</v>
+        <v>23.43420806785669</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.1426890543808</v>
+        <v>1.625783384107322</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.53621848003773</v>
+        <v>37.46703369693959</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>24.50169918382255</v>
+        <v>41.89961947287937</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.13598580735372</v>
+        <v>41.48492550957876</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.10939045346306</v>
+        <v>47.38059556467842</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.52890901827127</v>
+        <v>48.52076221918729</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.47652350996788</v>
+        <v>9.854758643161759</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.51419287781889</v>
+        <v>36.088621526338</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.35057594544898</v>
+        <v>41.40517041473181</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>11.917427610801</v>
+        <v>14.10845310837651</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>22.84744274397018</v>
+        <v>33.05641941553826</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.89958198643545</v>
+        <v>39.21969164406606</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>10.25346701799553</v>
+        <v>0.9846763675111987</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.63324125292347</v>
+        <v>23.49823307963054</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>24.88534993028827</v>
+        <v>31.53133023209618</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>14.45029574612979</v>
+        <v>4.498703713124556</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.97435946102741</v>
+        <v>42.54518209193235</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.593715784904266</v>
+        <v>2.417457392833043</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>19.39310553900685</v>
+        <v>17.30550093528068</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.39268877029148</v>
+        <v>23.50453007026032</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.023678501670178</v>
+        <v>-9.186408945278842</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.26200685098841</v>
+        <v>18.05400094233711</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.4607596394898</v>
+        <v>23.1983437813786</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.14320089510929</v>
+        <v>-1.521911306940908</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.53672231308889</v>
+        <v>36.13606688924126</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.50219830029747</v>
+        <v>42.76579667053302</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.13649091483894</v>
+        <v>39.843661354274</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.10989186015668</v>
+        <v>44.83625895739097</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.52940820661442</v>
+        <v>48.31763278370779</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.47703217213223</v>
+        <v>2.045077363701651</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.51469382845044</v>
+        <v>32.41009759564129</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.35107229466114</v>
+        <v>39.69861984302129</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.91793056657003</v>
+        <v>6.654049281515981</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.84793723480289</v>
+        <v>26.98000635803989</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.900071694736</v>
+        <v>35.34375284005334</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>10.25398278158398</v>
+        <v>-4.18744452443427</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.63374818645407</v>
+        <v>19.83722631767306</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.88585175039506</v>
+        <v>30.4567262961951</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.45080882982072</v>
+        <v>0.1664531721812779</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.97486441113792</v>
+        <v>40.2632986047242</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.593859595074248</v>
+        <v>-1.452065431674995</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.3932609317661</v>
+        <v>12.29744410539364</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.39284566961796</v>
+        <v>21.90152595228297</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.023816479801063</v>
+        <v>-8.981038504539569</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.2621567343515</v>
+        <v>14.66100696091648</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.46091114846538</v>
+        <v>23.25530133986764</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.14334583711039</v>
+        <v>-4.650599633489563</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.53687828191146</v>
+        <v>29.69207022061185</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.50235574649897</v>
+        <v>40.04984576388306</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.13665243478164</v>
+        <v>26.70112643635055</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.11005791704665</v>
+        <v>33.14468397320938</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.52957482257585</v>
+        <v>41.59902980647912</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.47718623386382</v>
+        <v>-2.335208345744761</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.514858340614</v>
+        <v>24.59799650393192</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.35123824549799</v>
+        <v>37.5637975885286</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>11.91807936632559</v>
+        <v>2.086582439619846</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.84809778550168</v>
+        <v>20.66075494515935</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.90023380714006</v>
+        <v>32.19930544283919</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.25412572022289</v>
+        <v>-5.188587818350314</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.63390320894921</v>
+        <v>14.39392446110206</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.8860084580175</v>
+        <v>28.25558938341685</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>14.45095882136583</v>
+        <v>-4.873650714769425</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.97502559432422</v>
+        <v>31.07898570519576</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.98923957226208</v>
+        <v>31.307046962477</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.72528380392089</v>
+        <v>17.05086949860332</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.77214481403443</v>
+        <v>30.65870284531839</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.21506863924154</v>
+        <v>35.61530979728558</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.01900140290835</v>
+        <v>-0.6649503562601495</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.19799119875626</v>
+        <v>19.48045008396788</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.07508245032522</v>
+        <v>28.53992627827743</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>20.28853718120649</v>
+        <v>12.3197221531011</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.24523200511216</v>
+        <v>23.93020973960849</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.27569150894548</v>
+        <v>34.63494722963951</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>18.95870525176965</v>
+        <v>-7.7831422899378</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.36915904830358</v>
+        <v>5.258734417355711</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.59929527372069</v>
+        <v>13.74339643736603</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.13803688088898</v>
+        <v>-5.981067261991242</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.69113412959224</v>
+        <v>24.84145249512279</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.68442971290997</v>
+        <v>39.88175618719283</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.61025695545575</v>
+        <v>28.7515346993536</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.65293758161672</v>
+        <v>43.26229037567408</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.09444315739989</v>
+        <v>50.8170233011226</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.8553932646067</v>
+        <v>-2.608727455326104</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.0580176880849</v>
+        <v>24.85942489881513</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.91630665321588</v>
+        <v>38.50509183021178</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.98929463554393</v>
+        <v>53.48114946690175</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.72533597645866</v>
+        <v>47.47591925619589</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.77220216757275</v>
+        <v>58.02981429357833</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.21512861104252</v>
+        <v>62.00409051904627</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.01904401009032</v>
+        <v>12.82578689850745</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.19804838964897</v>
+        <v>53.52350297075806</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.07514444670604</v>
+        <v>58.87682769361284</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.28858197552745</v>
+        <v>20.01159010480332</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.24529225538537</v>
+        <v>42.91307153186879</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.27575682918521</v>
+        <v>50.54739256697106</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>18.95875631445769</v>
+        <v>4.65575085668992</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.36922633010303</v>
+        <v>34.07168149259029</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.59936793023217</v>
+        <v>40.78734877372297</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>23.13809151057524</v>
+        <v>10.09487061164175</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>33.69120375476868</v>
+        <v>56.71258121711402</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.68450434864759</v>
+        <v>68.72971912824759</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.61032893276575</v>
+        <v>70.18131107138991</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>40.65301473307112</v>
+        <v>80.68106273858412</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>42.09452290572105</v>
+        <v>86.49416477208557</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.85545550660805</v>
+        <v>20.43857617843427</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>40.05809456981848</v>
+        <v>69.87008933949836</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>42.91638828483272</v>
+        <v>77.98563226252394</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>27.98979483871841</v>
+        <v>53.70460622260215</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.72584209279659</v>
+        <v>43.66159899911894</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>31.77270449091742</v>
+        <v>53.29249200243676</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>33.21562869947926</v>
+        <v>59.90742233095277</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.01955371765808</v>
+        <v>3.991942041720407</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.19855024608612</v>
+        <v>49.29512157627239</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.07564167949081</v>
+        <v>56.80037263169528</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.28907431527922</v>
+        <v>12.78492574300397</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.24577610468203</v>
+        <v>37.51487599588371</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.27623588104849</v>
+        <v>46.97416059526013</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>18.9592611063234</v>
+        <v>0.1469657725940436</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.36972226192979</v>
+        <v>31.67853567515373</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.59985873182487</v>
+        <v>40.56560087070152</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.13859364287214</v>
+        <v>6.405803009905483</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>33.69169772395013</v>
+        <v>55.56311361348467</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.6849935578227</v>
+        <v>69.63438868254904</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.61082381583857</v>
+        <v>68.59404025631785</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>40.65350584296908</v>
+        <v>78.10278010638338</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.09501174956256</v>
+        <v>86.33895066972777</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.85595408265662</v>
+        <v>12.93834551433393</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>40.0585852691239</v>
+        <v>67.57038911247942</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>42.916874345934</v>
+        <v>77.53113342910727</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.98995755332785</v>
+        <v>47.99259843715363</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.7260091327788</v>
+        <v>26.90074036622472</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.7728761548915</v>
+        <v>38.5664985760172</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.21580094743267</v>
+        <v>50.26587065945266</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.01971317848417</v>
+        <v>-2.591003038450523</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.19872033404589</v>
+        <v>38.43863009260669</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.07581325153188</v>
+        <v>51.20324742214315</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.28922361091683</v>
+        <v>9.955463948020295</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.24593714608361</v>
+        <v>32.83811246988562</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.27639849197941</v>
+        <v>46.58191552179319</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.95940499477382</v>
+        <v>-0.02154829481760601</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.36987823493101</v>
+        <v>26.79510076331935</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.60001639905057</v>
+        <v>40.02750914252378</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.13874448941556</v>
+        <v>2.678206305636351</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.69185976288018</v>
+        <v>47.5549631528532</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.68515713473951</v>
+        <v>66.32698286242744</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.6109919456507</v>
+        <v>52.72323772748531</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.65367859749906</v>
+        <v>65.23718111528838</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.09518509682761</v>
+        <v>79.20160018290495</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.85611470716985</v>
+        <v>6.376011971298496</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>40.05875651793788</v>
+        <v>56.47256564745574</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>42.91704708172756</v>
+        <v>73.25683744919085</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.62883161456121</v>
+        <v>11.94650632242814</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.57005623004381</v>
+        <v>18.87604357610836</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.61455795165977</v>
+        <v>24.60547727932872</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.15669184433977</v>
+        <v>-0.9138876137634924</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.54330198869094</v>
+        <v>15.73883093229647</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.78970868358687</v>
+        <v>18.24994692537588</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.34138917692577</v>
+        <v>2.728291959177184</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.87170280075711</v>
+        <v>29.7814289489183</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.88141129381926</v>
+        <v>34.92188412705333</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.55011759129872</v>
+        <v>23.96721058974707</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.57937061136676</v>
+        <v>31.61144844469716</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.02144671002989</v>
+        <v>31.96236469170519</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.78412173252416</v>
+        <v>7.925858372716377</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.95337568834864</v>
+        <v>15.7395901133511</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.83287027937173</v>
+        <v>24.62911633332747</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.07449720215732</v>
+        <v>11.34553726362311</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.14780431548327</v>
+        <v>22.21193521525548</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>32.24516055563094</v>
+        <v>27.98070478121714</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.50773932845792</v>
+        <v>-2.998606330313592</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.03742561249029</v>
+        <v>8.427983598927128</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>31.33748355502428</v>
+        <v>14.19821010044613</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.77112119348719</v>
+        <v>-4.125399924462798</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.43347632649983</v>
+        <v>23.48873642211417</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.62886134807715</v>
+        <v>13.17014898924357</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.57010140462897</v>
+        <v>29.31069182514777</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.61460826484981</v>
+        <v>32.67400631900831</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>13.15672781995252</v>
+        <v>2.137107988787719</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.54335416156504</v>
+        <v>32.54971888482267</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.78976630765727</v>
+        <v>34.02197114967051</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.34142863921426</v>
+        <v>8.835704146089299</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.87175723671051</v>
+        <v>49.30647285751054</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.88147081154178</v>
+        <v>52.29878828469343</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.55017422890417</v>
+        <v>52.36808108948237</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.57943241761016</v>
+        <v>57.52338123343479</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.02151114170424</v>
+        <v>56.58748034584944</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.78416865522828</v>
+        <v>18.08477559114603</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.95343721750879</v>
+        <v>44.94977000058789</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.83293662978834</v>
+        <v>49.38133535469173</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>18.07453183780406</v>
+        <v>14.24850598105395</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.14785454730544</v>
+        <v>35.72846924989939</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.24521600355081</v>
+        <v>39.76395407671335</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.50778009020955</v>
+        <v>2.982967380790924</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.03748274170822</v>
+        <v>29.7984769331308</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.33754621178332</v>
+        <v>35.26158393726651</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.77116554516759</v>
+        <v>6.030102294215951</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.43353580901423</v>
+        <v>48.74914922245581</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>14.62936399169451</v>
+        <v>7.696613516603108</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.57059560504862</v>
+        <v>25.1289732614333</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.61509764533831</v>
+        <v>30.42442833602733</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>13.15724305508797</v>
+        <v>-0.8082942936106434</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.54386059600564</v>
+        <v>31.00239245528608</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.79026758392145</v>
+        <v>34.73395803133432</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>17.34194121973339</v>
+        <v>6.526257409404153</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.87226171184606</v>
+        <v>48.94656968142102</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.88197049842464</v>
+        <v>54.16170611647568</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.55067995962017</v>
+        <v>51.69783462600027</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.57993439446938</v>
+        <v>55.92907915123446</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.02201086145678</v>
+        <v>57.38328557974803</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.78467800017415</v>
+        <v>10.99764256715933</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>33.9539387589769</v>
+        <v>42.19591310246919</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.83343349748932</v>
+        <v>48.63170464261013</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.07503544631539</v>
+        <v>7.35360796029768</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.14834958779443</v>
+        <v>30.33225855991843</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.24570618926055</v>
+        <v>36.59117500083438</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.50829656084165</v>
+        <v>-1.503251111110686</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.0379902745317</v>
+        <v>26.94621657168823</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.3380485538701</v>
+        <v>35.03001286607081</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.77167929374824</v>
+        <v>2.425726684049366</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.43404132497207</v>
+        <v>47.33589410581767</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.62951616510095</v>
+        <v>3.084467661645007</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.57075950862327</v>
+        <v>19.33562445055669</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.61526307758406</v>
+        <v>28.21604693322739</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.15738946135734</v>
+        <v>-1.172703864724369</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.54401905900568</v>
+        <v>26.91407894336892</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.79042769622777</v>
+        <v>34.28079606677689</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>17.34209468169965</v>
+        <v>2.667917925094159</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.87242634075993</v>
+        <v>41.6569763428469</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.8821366262422</v>
+        <v>50.79535836408108</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.55085027238248</v>
+        <v>37.48335374959073</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.58010930486007</v>
+        <v>43.23585376526923</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.02218633912515</v>
+        <v>49.84973925380361</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.78484073310772</v>
+        <v>5.773196073790572</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.95411207761899</v>
+        <v>33.4518394057156</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.83360827471921</v>
+        <v>45.80475992017692</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>18.07519277226417</v>
+        <v>2.525436269721794</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.1485188143548</v>
+        <v>23.70361688745449</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.24587699996441</v>
+        <v>33.31587399391383</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.50844809137772</v>
+        <v>-2.606140817739899</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.03815404274081</v>
+        <v>21.26815256836581</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.33821403128988</v>
+        <v>32.77618292684458</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.77183797066149</v>
+        <v>-2.887096376471064</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.43421133580098</v>
+        <v>37.75183187599843</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.49290791539292</v>
+        <v>33.30039773434019</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>34.26385382583793</v>
+        <v>20.69454641064628</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.3676254531612</v>
+        <v>33.71537692554706</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.8333253927522</v>
+        <v>36.36337160733773</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.44984628801891</v>
+        <v>1.633801676720722</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>37.76216055999579</v>
+        <v>22.20280197917971</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.68243301036534</v>
+        <v>29.26936868271007</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.29361429104506</v>
+        <v>8.776947773901483</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.39168204513892</v>
+        <v>22.21026382846939</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>40.46762667478318</v>
+        <v>31.65968864181893</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.06171191525067</v>
+        <v>-9.035238509222935</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.62007909736722</v>
+        <v>7.48783120970792</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.89850023257561</v>
+        <v>14.10623318894791</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.30543732956163</v>
+        <v>-8.260357847087178</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.99496520896815</v>
+        <v>26.46391159942043</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.03305073915134</v>
+        <v>39.83581953921292</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>42.99397657533819</v>
+        <v>30.278979444543</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>47.09299150933522</v>
+        <v>44.26722700029704</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.55743713626192</v>
+        <v>49.69379889405162</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.13293078445636</v>
+        <v>-2.853350694202831</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.46726784623489</v>
+        <v>25.07504971375745</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.36904180474252</v>
+        <v>37.21655960219771</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.49297255153918</v>
+        <v>57.13903089417902</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.26391557320272</v>
+        <v>53.2504490192223</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>38.36769245581124</v>
+        <v>63.0820368254365</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.83339505530582</v>
+        <v>64.63008307501671</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.44989831953966</v>
+        <v>16.65845134175872</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.76222736964184</v>
+        <v>58.46936024751299</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.6825047001191</v>
+        <v>61.56876011708265</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.29366797387404</v>
+        <v>17.18173971234476</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.39175138845965</v>
+        <v>42.36074211044219</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.46770116563952</v>
+        <v>48.49924747233415</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.06177208246398</v>
+        <v>4.269315474761825</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.62015570016895</v>
+        <v>37.77767444309585</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.89858229177456</v>
+        <v>42.42699882465054</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.30550113934936</v>
+        <v>8.836834713177197</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.99504421362863</v>
+        <v>59.96113195817826</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.03313483067964</v>
+        <v>70.0586624288989</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>42.99405801026354</v>
+        <v>73.64745658610859</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>47.09307819176912</v>
+        <v>83.4654796453021</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.55752645725123</v>
+        <v>87.01322301294202</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.1330023346317</v>
+        <v>21.50819486903383</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>46.46735422789929</v>
+        <v>72.13867268663866</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.36913301112782</v>
+        <v>78.44410930357564</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.49347324889726</v>
+        <v>58.2604146673397</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.26442223581913</v>
+        <v>50.26604647830503</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.36819527097956</v>
+        <v>59.15190824624126</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.83389559655188</v>
+        <v>63.39422134224246</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.45040863386609</v>
+        <v>8.436781080552052</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.76272973925984</v>
+        <v>55.067608492726</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.68300237397496</v>
+        <v>60.35117702186922</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.29416112220213</v>
+        <v>10.50770882885963</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.3922359453874</v>
+        <v>37.64572773673818</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.46818085227125</v>
+        <v>45.62304084921324</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.06227773586023</v>
+        <v>0.4492484891146518</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.62065238803724</v>
+        <v>36.20946642770285</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.8990737713487</v>
+        <v>43.05520570546177</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.30600409368753</v>
+        <v>5.879152222080208</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.99553890788236</v>
+        <v>59.69447789784586</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.03362469260872</v>
+        <v>71.86433312831669</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>42.99455359644438</v>
+        <v>72.93304214116306</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.09356995099235</v>
+        <v>81.73468050489463</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.5580159110493</v>
+        <v>87.75244652244901</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.13350167320181</v>
+        <v>14.64292935571909</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>46.46784559776054</v>
+        <v>70.70273255913754</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>49.36961967004086</v>
+        <v>78.87795755422754</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.49364481300357</v>
+        <v>52.3414751443995</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.26459823769539</v>
+        <v>32.83736536143003</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.36837595900124</v>
+        <v>43.85541330906871</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.83407687675396</v>
+        <v>53.37493248542147</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.45057693233834</v>
+        <v>1.452431516819061</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.76290880250974</v>
+        <v>43.71635088872576</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.68318294133031</v>
+        <v>54.4855534298819</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.2943186837522</v>
+        <v>7.982995594744253</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.3924054010563</v>
+        <v>33.21600096200162</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.46835190015187</v>
+        <v>45.68178852190685</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.06242995829356</v>
+        <v>0.7244253920671753</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.62081684760537</v>
+        <v>31.62441805039366</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.89923994955719</v>
+        <v>43.02314928833268</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.30616336405908</v>
+        <v>2.447188603674093</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.99570951173051</v>
+        <v>51.84475022710716</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.033796856584</v>
+        <v>68.93766051665229</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.99473042573143</v>
+        <v>56.95407177327014</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>47.09375146677124</v>
+        <v>68.88052066858036</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.55819802800859</v>
+        <v>80.83602217661418</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.13367087572138</v>
+        <v>8.20674174463916</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.46802556116878</v>
+        <v>59.61555594800662</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.36980114074959</v>
+        <v>74.88169366845069</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.39719137751016</v>
+        <v>18.33391546686143</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.24347481099071</v>
+        <v>20.58737444331528</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.27821051890235</v>
+        <v>25.64446458312302</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.96385163481042</v>
+        <v>10.01338421663458</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.25058887535818</v>
+        <v>23.32552442467262</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.48662010542495</v>
+        <v>25.49031864583306</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>22.14179438317332</v>
+        <v>10.48908244381455</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>32.57930442075943</v>
+        <v>32.45874966542847</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.57954833039393</v>
+        <v>37.17482959760845</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.23413091629659</v>
+        <v>24.80269452548627</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.2319691753036</v>
+        <v>31.51826171890168</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.66991047290043</v>
+        <v>33.15578000646802</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.5121114205315</v>
+        <v>18.59727102373354</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.58812137211565</v>
+        <v>17.4995423637741</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.45944280607315</v>
+        <v>27.43578357929427</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.84886254832129</v>
+        <v>15.08458217759373</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.82731372526062</v>
+        <v>21.31237602333313</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.91452199190553</v>
+        <v>27.03628131786597</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.32114950407283</v>
+        <v>4.865550701261569</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.75111276694555</v>
+        <v>12.86387301833348</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.04040249663144</v>
+        <v>18.81935381206559</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.57664881362735</v>
+        <v>-0.1673171480488946</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.14633114087056</v>
+        <v>22.38824286656238</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>19.39722664151087</v>
+        <v>19.18774180791665</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.24352540977862</v>
+        <v>30.39109056758308</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.27826623421291</v>
+        <v>33.34843882779693</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.9638931058387</v>
+        <v>12.58947880839402</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.25064643181343</v>
+        <v>39.34482522103185</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.4866830893059</v>
+        <v>40.74703928815946</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.14183935602745</v>
+        <v>16.12459663998952</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.57936426325504</v>
+        <v>51.20238442111581</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.57961323251324</v>
+        <v>54.03782456948305</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>35.2341928995563</v>
+        <v>52.51226719950124</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.23203629948347</v>
+        <v>56.87094132780025</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.66998021509681</v>
+        <v>57.35371423995137</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.51216374159406</v>
+        <v>28.6645553440592</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.58818819357942</v>
+        <v>46.20641357150292</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>41.45951443283984</v>
+        <v>51.94769555629775</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.84890271063687</v>
+        <v>17.74723876363804</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.82736937722797</v>
+        <v>34.30538029002385</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.91458283718585</v>
+        <v>38.5654279165867</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>21.32119575676773</v>
+        <v>10.51423757690345</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.75117527507523</v>
+        <v>33.55465457098821</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.04047050778991</v>
+        <v>39.48590852260908</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.57669867058459</v>
+        <v>9.65569388758793</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.14639602443907</v>
+        <v>46.9798017628115</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>19.39772275949728</v>
+        <v>13.66063822566905</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.24401315530501</v>
+        <v>26.19411206491871</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.2787491862634</v>
+        <v>31.0706404139015</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>17.96440171421718</v>
+        <v>9.566167814755758</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.25114631434025</v>
+        <v>37.74548814855392</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.48717784150663</v>
+        <v>41.39600179113812</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.14234531913242</v>
+        <v>13.73716441770652</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.57986219011762</v>
+        <v>50.8026906793997</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.58010639679544</v>
+        <v>55.84505266570152</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.23469213226424</v>
+        <v>51.79367105491433</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>39.2325318052355</v>
+        <v>55.24554275076447</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.67047347102926</v>
+        <v>58.11015493521954</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.51266655740235</v>
+        <v>21.61963007122604</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.58868327731527</v>
+        <v>43.5019608158445</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.46000486422204</v>
+        <v>51.24317396237883</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.84939974693269</v>
+        <v>10.83692939945639</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.82785791605886</v>
+        <v>28.92735763909836</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.91506654830808</v>
+        <v>35.39570198923862</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.3217055545308</v>
+        <v>5.994237523982136</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.75167620961901</v>
+        <v>30.68796870537012</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.04096628005628</v>
+        <v>39.22795234208947</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.57720575602237</v>
+        <v>6.017566542992981</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.14689494618669</v>
+        <v>45.56641340577583</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>19.3978799851762</v>
+        <v>9.470877980225097</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.24418197833042</v>
+        <v>21.06336460522458</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.27891954354335</v>
+        <v>29.22766649067266</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>17.96455328570874</v>
+        <v>9.761580529154358</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.25130980314452</v>
+        <v>34.47178037129343</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.48734298569826</v>
+        <v>41.45310973347064</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.14250391686377</v>
+        <v>10.43562687800771</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.58003182517074</v>
+        <v>44.34537553042161</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.58027753692026</v>
+        <v>53.01081068582691</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.23486746813674</v>
+        <v>38.30527954470453</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>39.23271168833497</v>
+        <v>43.15808578887361</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>40.67065392069746</v>
+        <v>51.05365524387547</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.51283437196156</v>
+        <v>16.67042636843384</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.58886154949067</v>
+        <v>35.30912622153038</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.46018459707233</v>
+        <v>48.7054674371566</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.84956212932622</v>
+        <v>6.785565266564575</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.82803206661987</v>
+        <v>23.32904753767004</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.9152422884376</v>
+        <v>32.85591490961987</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>21.32186225570227</v>
+        <v>5.795801368248632</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.75184500953907</v>
+        <v>26.18554268895666</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.04113679511002</v>
+        <v>37.8500764426539</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.57736957204682</v>
+        <v>1.611116314494225</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.14706996695988</v>
+        <v>37.18217573978013</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.19593743996194</v>
+        <v>32.38047588515603</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.95133660673328</v>
+        <v>17.67450837696818</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>43.0237385078949</v>
+        <v>29.85715442543103</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>44.48539317906079</v>
+        <v>34.23740750662257</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>32.18113301105142</v>
+        <v>7.806873778302119</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>42.40032777126476</v>
+        <v>19.64461217204162</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>45.31209191472652</v>
+        <v>27.86057155698005</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.94346717680345</v>
+        <v>15.8599577997404</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.94701891021231</v>
+        <v>24.50830458039802</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>45.01247224923651</v>
+        <v>33.36786928645567</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.74910212421368</v>
+        <v>2.752646113145872</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>41.20812385916543</v>
+        <v>15.6324375222673</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.4753338695987</v>
+        <v>21.92306935140765</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.98410745761643</v>
+        <v>-0.1099178222018367</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.58129239370736</v>
+        <v>29.41067088164878</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>47.60917320166708</v>
+        <v>42.39820602064886</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.55369514579809</v>
+        <v>31.2888444866803</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>51.62159396080817</v>
+        <v>44.33340202674772</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>53.08156309136199</v>
+        <v>50.70408602812778</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>40.73657119693154</v>
+        <v>7.980775807659413</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.97838513230858</v>
+        <v>26.7059961816317</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.87127851861766</v>
+        <v>39.51319806748164</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.19600745433922</v>
+        <v>55.82134951420001</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.95140369191724</v>
+        <v>49.65375808511142</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>43.02381082068408</v>
+        <v>58.79572217100666</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>44.48546814424687</v>
+        <v>62.20558545221827</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.18119043289828</v>
+        <v>22.8604908045274</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.40039986496752</v>
+        <v>55.49204883146949</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.31216887196594</v>
+        <v>60.00920953404479</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.94352621878556</v>
+        <v>24.07948104031077</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.9470935068296</v>
+        <v>44.16409295666487</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.01255196998085</v>
+        <v>50.0036223103147</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.74916761515704</v>
+        <v>15.72862522008295</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>41.20820567444065</v>
+        <v>45.20742269081465</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.47542111600816</v>
+        <v>49.83561922541968</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.98417660344171</v>
+        <v>16.67157599773383</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.58137663090635</v>
+        <v>62.22792038819959</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>47.6092625022205</v>
+        <v>72.23649150795062</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>47.55378174858861</v>
+        <v>74.05421126796959</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>51.62168578374088</v>
+        <v>83.06921624046292</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>53.08165754492535</v>
+        <v>87.71355501674803</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.73664796766711</v>
+        <v>32.36290507530775</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.97847662915377</v>
+        <v>73.30027995492732</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.87137482292834</v>
+        <v>80.5726569033085</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>39.19650158371404</v>
+        <v>56.92455646814169</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>38.95190381236252</v>
+        <v>46.67294984838902</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>43.02430712053648</v>
+        <v>54.88615505854541</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.48596217733009</v>
+        <v>60.97748436756542</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.18169417470276</v>
+        <v>14.72121342650151</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.40089573324503</v>
+        <v>52.16928098186857</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.31266006643081</v>
+        <v>58.86643014136185</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.94401293074501</v>
+        <v>17.49486173745682</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.94757169708127</v>
+        <v>39.56793324728558</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.01302531785667</v>
+        <v>47.23583758248931</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.74966673162906</v>
+        <v>11.96836654179658</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>41.20869589904584</v>
+        <v>43.71161132162329</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.47590616176682</v>
+        <v>50.52859618211711</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.98467303246505</v>
+        <v>13.7740431976779</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>44.58186486793213</v>
+        <v>62.05037299992303</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>47.60974593403093</v>
+        <v>74.11861116220815</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>47.5542709301408</v>
+        <v>73.41800575882642</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>51.62217116459529</v>
+        <v>81.43099976868525</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>53.08214062856081</v>
+        <v>88.53646084903629</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>40.73714087122418</v>
+        <v>25.66004720002864</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>50.97896163403361</v>
+        <v>72.01503793801969</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>53.87185513967619</v>
+        <v>81.15685812304092</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.19667816378432</v>
+        <v>51.90766826464115</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.95208483912297</v>
+        <v>30.34734036529839</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.0244927830846</v>
+        <v>40.55666762242602</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.48614843159348</v>
+        <v>51.80333140710728</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>32.18186755650418</v>
+        <v>8.350115057517897</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>42.40107975220907</v>
+        <v>41.72701123659006</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>45.31284559144315</v>
+        <v>53.65267365180212</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.94417542372806</v>
+        <v>15.71618668286733</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.94774595173096</v>
+        <v>36.15201135158499</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.01320117006956</v>
+        <v>47.99444164737226</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.74982399467754</v>
+        <v>13.1406427855283</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.20886526026095</v>
+        <v>40.31949501875697</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.47607724736552</v>
+        <v>51.36611778583914</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>33.98483731224902</v>
+        <v>11.23067004016345</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.58204035192805</v>
+        <v>55.3972914601582</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.60992298407511</v>
+        <v>72.0707061576329</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>47.55445265252071</v>
+        <v>58.52594457889874</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.62235752330235</v>
+        <v>69.53020457344893</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.08232758755335</v>
+        <v>82.4231018964462</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>40.73731502542461</v>
+        <v>19.82436170291437</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.97914642188965</v>
+        <v>61.84977193178118</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>53.87204143668487</v>
+        <v>77.78828937699193</v>
       </c>
     </row>
   </sheetData>
